--- a/biology/Biochimie/Beverly_E._Pearson_Murphy/Beverly_E._Pearson_Murphy.xlsx
+++ b/biology/Biochimie/Beverly_E._Pearson_Murphy/Beverly_E._Pearson_Murphy.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Beverley Elaine Pearson Murphy est une biochimiste et endocrinologue québécoise née le 15 mars 1929 à Toronto et morte le 27 avril 2020[1],[2] à Montréal. 
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Beverley Elaine Pearson Murphy est une biochimiste et endocrinologue québécoise née le 15 mars 1929 à Toronto et morte le 27 avril 2020, à Montréal. 
 Elle travaille à l'Hôpital général de Montréal. Elle est considérée comme une pionnière dans le développement des essais hormonaux. Elle a réussi le premier essai clinique sur la thyroxine et sur le cortisol. 
 Elle est l'une des vingt-sept femmes de la liste des 1 000 scientifiques contemporains les plus cités du monde.
 Elle est morte après avoir été hospitalisée suite d’avoir attrapé le coronavirus.
@@ -514,7 +526,9 @@
           <t>Distinctions</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>1987 - Officier de l'Ordre national du Québec</t>
         </is>
